--- a/6node_spain/output_a.xlsx
+++ b/6node_spain/output_a.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,21 +452,6 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>i7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>i9</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,27 +463,18 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.711173756007756e-07</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.049777682986309e-09</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.847902911326734e-09</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -509,31 +485,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.711173756007756e-07</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.043876027046637e-09</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.218573043980729</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
+        <v>0.8069333896388119</v>
       </c>
     </row>
     <row r="4">
@@ -543,30 +510,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.049777682986309e-09</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.043876027046637e-09</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8517350933034392</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -577,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.847902911326734e-09</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.218573043980729</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8517350933034392</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -592,16 +550,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
+        <v>0.006070787794139079</v>
       </c>
     </row>
     <row r="6">
@@ -626,16 +575,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
+        <v>1.708905370183168e-06</v>
       </c>
     </row>
     <row r="7">
@@ -648,129 +588,18 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.8069333896388119</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.006070787794139079</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.708905370183168e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>i7</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>i9</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
